--- a/biology/Médecine/ADAMTS13/ADAMTS13.xlsx
+++ b/biology/Médecine/ADAMTS13/ADAMTS13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADAMTS13 (« a disintegrin and metalloprotease with thrombospondin type I repeats-13 ») est une métalloprotéinase appartenant à la famille des ADAMTS. Son gène est ADAMTS13 situé sur le chromosome 9 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il permet le clivage et la dégradation du facteur de von Willebrand intervenant dans la coagulation sanguine.
-Il pourrait également intervenir dans les inflammations, en diminuant l'extravasation de liquides[5]. 
+Il pourrait également intervenir dans les inflammations, en diminuant l'extravasation de liquides. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en ADAMTS13, qu'il soit primaire (mutation du gène[6]) ou secondaire (par inhibition par anticorps) cause le purpura thrombotique thrombocytopénique, avec une accumulation de multimères de facteurs de von Willebrand. Un taux effondré d'ADAMTS13, en l'absence d'inhibiteur, serait prédicteur d'une bonne réponse aux échanges plasmatiques[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en ADAMTS13, qu'il soit primaire (mutation du gène) ou secondaire (par inhibition par anticorps) cause le purpura thrombotique thrombocytopénique, avec une accumulation de multimères de facteurs de von Willebrand. Un taux effondré d'ADAMTS13, en l'absence d'inhibiteur, serait prédicteur d'une bonne réponse aux échanges plasmatiques.
 </t>
         </is>
       </c>
